--- a/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.NRAS.chr1-114716123-C-T.MUT.xlsx
+++ b/Results/TCGA/SpliceJunction/NormalizedExpression/TCGA.NRAS.chr1-114716123-C-T.MUT.xlsx
@@ -98,7 +98,7 @@
     <t xml:space="preserve">TCGA-AB-2808-03A</t>
   </si>
   <si>
-    <t xml:space="preserve">TCGA-AB-2808-03D_Alq2</t>
+    <t xml:space="preserve">TCGA-AB-2808-03D</t>
   </si>
   <si>
     <t xml:space="preserve">Not DNA called</t>
